--- a/xlsx/ctd_bw.xlsx
+++ b/xlsx/ctd_bw.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -372,7 +372,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
